--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_3_fts_result_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_3_fts_result_202307.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF1DFD-C817-42E9-8AB1-A3B2F7E777BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
   <si>
     <t>type</t>
   </si>
@@ -452,78 +458,9 @@
     <t>Autre (expliquer)</t>
   </si>
   <si>
-    <t>KAOLACK</t>
-  </si>
-  <si>
-    <t>KEDOUGOU</t>
-  </si>
-  <si>
     <t>LOUGA</t>
   </si>
   <si>
-    <t>THIES</t>
-  </si>
-  <si>
-    <t>ZIGUINCHOR</t>
-  </si>
-  <si>
-    <t>DIOULOULOU</t>
-  </si>
-  <si>
-    <t>KEUR MOMAR SARR</t>
-  </si>
-  <si>
-    <t>KHOMBOLE</t>
-  </si>
-  <si>
-    <t>LINGUERE</t>
-  </si>
-  <si>
-    <t>SALEMATA</t>
-  </si>
-  <si>
-    <t>SC DIAGALY</t>
-  </si>
-  <si>
-    <t>SC DIOKOUL</t>
-  </si>
-  <si>
-    <t>SC DOMBONDIR</t>
-  </si>
-  <si>
-    <t>SC KEUR MOMAR SARR</t>
-  </si>
-  <si>
-    <t>SC LEBAR</t>
-  </si>
-  <si>
-    <t>SC NDIAKHOU</t>
-  </si>
-  <si>
-    <t>SC OUNDOUFERE</t>
-  </si>
-  <si>
-    <t>SC SOUKOUTA</t>
-  </si>
-  <si>
-    <t>SS AFIA DANDE MAYO</t>
-  </si>
-  <si>
-    <t>SS BARKEDJI</t>
-  </si>
-  <si>
-    <t>SS KHALAMBASSE</t>
-  </si>
-  <si>
-    <t>SS KOBA</t>
-  </si>
-  <si>
-    <t>SS NGADE KHAYE</t>
-  </si>
-  <si>
-    <t>SS THIATNGOL</t>
-  </si>
-  <si>
     <t>code_site_list</t>
   </si>
   <si>
@@ -536,26 +473,35 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Juillet 2022) 3. Pre-TAS FL Résultat FTS V1</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_3_fts_result_202207_v1</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_3_fts_result_202307</t>
+  </si>
+  <si>
+    <t>(Juillet 2023) 3. Pre-TAS FL Résultat FTS</t>
+  </si>
+  <si>
+    <t>COKI</t>
+  </si>
+  <si>
+    <t>KELLE NDIAYE</t>
+  </si>
+  <si>
+    <t>KEUR BAKAR</t>
+  </si>
+  <si>
+    <t>PETE OURACK</t>
+  </si>
+  <si>
+    <t>TANIME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,7 +514,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,180 +522,36 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,194 +576,8 @@
         <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -971,31 +587,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,253 +630,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1392,68 +766,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
-      <color rgb="00CCECFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1711,42 +1044,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="42.6074074074074" style="19" customWidth="1"/>
-    <col min="4" max="4" width="41.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="47.3851851851852" customWidth="1"/>
-    <col min="7" max="7" width="12.6074074074074" customWidth="1"/>
-    <col min="8" max="8" width="35.4444444444444" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="49.3851851851852" style="19" customWidth="1"/>
-    <col min="12" max="12" width="12.6074074074074" customWidth="1"/>
-    <col min="13" max="13" width="9.71851851851852" customWidth="1"/>
-    <col min="14" max="14" width="35.3851851851852" customWidth="1"/>
-    <col min="15" max="15" width="13.8888888888889" customWidth="1"/>
-    <col min="16" max="16" width="36.6074074074074" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="49.375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:17">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="37.5">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="63">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -1837,7 +1169,7 @@
       <c r="O2" s="39"/>
       <c r="P2" s="22"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+    <row r="3" spans="1:17" s="3" customFormat="1">
       <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
@@ -1865,7 +1197,7 @@
       <c r="O3" s="39"/>
       <c r="P3" s="50"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    <row r="4" spans="1:17" s="3" customFormat="1">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -1893,7 +1225,7 @@
       <c r="O4" s="39"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
+    <row r="5" spans="1:17" s="3" customFormat="1">
       <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
@@ -1921,7 +1253,7 @@
       <c r="O5" s="39"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
+    <row r="6" spans="1:17" s="3" customFormat="1">
       <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1287,7 @@
       <c r="O6" s="39"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
@@ -1989,7 +1321,7 @@
       <c r="O7" s="39"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="28.5" spans="1:16">
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +1353,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:16">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +1383,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
+    <row r="10" spans="1:17" s="3" customFormat="1">
       <c r="A10" s="22" t="s">
         <v>60</v>
       </c>
@@ -2081,7 +1413,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
+    <row r="11" spans="1:17" s="3" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +1439,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="57" spans="1:16">
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="63">
       <c r="A12" s="22" t="s">
         <v>66</v>
       </c>
@@ -2135,7 +1467,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
+    <row r="13" spans="1:17" s="3" customFormat="1">
       <c r="A13" s="22" t="s">
         <v>27</v>
       </c>
@@ -2171,7 +1503,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +1537,7 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="22" t="s">
         <v>55</v>
       </c>
@@ -2235,7 +1567,7 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="22" t="s">
         <v>60</v>
       </c>
@@ -2291,7 +1623,7 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
     </row>
-    <row r="18" s="18" customFormat="1" spans="1:16">
+    <row r="18" spans="1:16" s="18" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +1647,7 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" s="19" customFormat="1" spans="1:16">
+    <row r="19" spans="1:16" s="19" customFormat="1">
       <c r="A19" s="28" t="s">
         <v>66</v>
       </c>
@@ -2341,7 +1673,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" ht="28.5" spans="1:16">
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
@@ -2442,27 +1774,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD59"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3851851851852" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="60.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2488,7 +1817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
@@ -2502,7 +1831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2516,7 +1845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -2530,7 +1859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2544,7 +1873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2558,7 +1887,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2572,7 +1901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2586,7 +1915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -2600,7 +1929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -2614,7 +1943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -2628,7 +1957,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2642,7 +1971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2656,7 +1985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2670,7 +1999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2693,7 +2022,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:7">
+    <row r="17" spans="1:7" s="4" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>100</v>
       </c>
@@ -2710,780 +2039,483 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:7">
-      <c r="A18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>142</v>
-      </c>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" s="4" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" s="4" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:7">
-      <c r="A21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>145</v>
-      </c>
+    <row r="21" spans="1:7" s="4" customFormat="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:7">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" s="4" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:7">
+    <row r="24" spans="1:7" s="4" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:7">
-      <c r="A26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>143</v>
-      </c>
+    <row r="26" spans="1:7" s="4" customFormat="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:7">
+    <row r="27" spans="1:7" s="4" customFormat="1">
       <c r="A27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="10">
         <v>101</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="C27" s="11">
+        <v>101</v>
+      </c>
+      <c r="D27" s="12">
+        <v>101</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B28" s="13">
+        <v>102</v>
+      </c>
+      <c r="C28" s="14">
+        <v>102</v>
+      </c>
+      <c r="D28" s="15">
+        <v>102</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="G28" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B29" s="10">
+        <v>103</v>
+      </c>
+      <c r="C29" s="11">
+        <v>103</v>
+      </c>
+      <c r="D29" s="12">
+        <v>103</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="G29" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1">
+      <c r="A30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="10">
+        <v>104</v>
+      </c>
+      <c r="C30" s="11">
+        <v>104</v>
+      </c>
+      <c r="D30" s="12">
+        <v>104</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="G30" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:6">
-      <c r="A32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:6">
-      <c r="A33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:6">
-      <c r="A35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>155</v>
-      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="1:6">
-      <c r="A36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>156</v>
-      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:6">
-      <c r="A37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:6">
-      <c r="A38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>158</v>
-      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:6">
-      <c r="A39" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:6">
-      <c r="A40" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:6">
-      <c r="A41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>161</v>
-      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:6">
-      <c r="A42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:6">
-      <c r="A43" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>163</v>
-      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:6">
-      <c r="A44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:5">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:7">
-      <c r="A46" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="10">
-        <v>101</v>
-      </c>
-      <c r="C46" s="11">
-        <v>101</v>
-      </c>
-      <c r="D46" s="12">
-        <v>101</v>
-      </c>
+    <row r="46" spans="1:6" s="4" customFormat="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="17"/>
-      <c r="G46" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:7">
-      <c r="A47" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="10">
-        <v>102</v>
-      </c>
-      <c r="C47" s="11">
-        <v>102</v>
-      </c>
-      <c r="D47" s="12">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="17"/>
-      <c r="G47" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:7">
-      <c r="A48" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="10">
-        <v>103</v>
-      </c>
-      <c r="C48" s="11">
-        <v>103</v>
-      </c>
-      <c r="D48" s="12">
-        <v>103</v>
-      </c>
+    </row>
+    <row r="48" spans="1:6" s="4" customFormat="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="17"/>
-      <c r="G48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:7">
-      <c r="A49" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="10">
-        <v>104</v>
-      </c>
-      <c r="C49" s="11">
-        <v>104</v>
-      </c>
-      <c r="D49" s="12">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="17"/>
-      <c r="G49" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:7">
-      <c r="A50" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="10">
-        <v>105</v>
-      </c>
-      <c r="C50" s="11">
-        <v>105</v>
-      </c>
-      <c r="D50" s="12">
-        <v>105</v>
-      </c>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="17"/>
-      <c r="G50" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:7">
-      <c r="A51" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="10">
-        <v>106</v>
-      </c>
-      <c r="C51" s="11">
-        <v>106</v>
-      </c>
-      <c r="D51" s="12">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="17"/>
-      <c r="G51" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="1:7">
-      <c r="A52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="10">
-        <v>107</v>
-      </c>
-      <c r="C52" s="11">
-        <v>107</v>
-      </c>
-      <c r="D52" s="12">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="17"/>
-      <c r="G52" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="1:7">
-      <c r="A53" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="10">
-        <v>108</v>
-      </c>
-      <c r="C53" s="11">
-        <v>108</v>
-      </c>
-      <c r="D53" s="12">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="17"/>
-      <c r="G53" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:7">
-      <c r="A54" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="10">
-        <v>109</v>
-      </c>
-      <c r="C54" s="11">
-        <v>109</v>
-      </c>
-      <c r="D54" s="12">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="17"/>
-      <c r="G54" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="1:7">
-      <c r="A55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="10">
-        <v>110</v>
-      </c>
-      <c r="C55" s="11">
-        <v>110</v>
-      </c>
-      <c r="D55" s="12">
-        <v>110</v>
-      </c>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="17"/>
-      <c r="G55" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="1:7">
-      <c r="A56" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="10">
-        <v>111</v>
-      </c>
-      <c r="C56" s="11">
-        <v>111</v>
-      </c>
-      <c r="D56" s="12">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="17"/>
-      <c r="G56" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" s="4" customFormat="1" spans="1:7">
-      <c r="A57" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="10">
-        <v>112</v>
-      </c>
-      <c r="C57" s="11">
-        <v>112</v>
-      </c>
-      <c r="D57" s="12">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="17"/>
-      <c r="G57" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" s="4" customFormat="1" spans="1:7">
-      <c r="A58" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="10">
-        <v>113</v>
-      </c>
-      <c r="C58" s="11">
-        <v>113</v>
-      </c>
-      <c r="D58" s="12">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="17"/>
-      <c r="G58" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" s="4" customFormat="1" spans="1:7">
-      <c r="A59" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="10">
-        <v>114</v>
-      </c>
-      <c r="C59" s="11">
-        <v>114</v>
-      </c>
-      <c r="D59" s="12">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="17"/>
-      <c r="G59" s="4" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="31.3851851851852" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>169</v>
+      <c r="A2" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_3_fts_result_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_3_fts_result_202307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF1DFD-C817-42E9-8AB1-A3B2F7E777BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB21188-D71E-40E9-A9AA-CCA3918BB036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -133,24 +133,6 @@
   </si>
   <si>
     <t>Sélectionner le code du site</t>
-  </si>
-  <si>
-    <t>d_code_id</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrer le code d'identification unique du test de diagnostic </t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The format should be 123-1234-567</t>
-  </si>
-  <si>
-    <t>Le format doit être 123-1234-567</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -495,6 +477,45 @@
   </si>
   <si>
     <t>TANIME</t>
+  </si>
+  <si>
+    <t>select_one id_list</t>
+  </si>
+  <si>
+    <t>d_IDType</t>
+  </si>
+  <si>
+    <t>Does a bar code need to be scanned on the diagnostic test?</t>
+  </si>
+  <si>
+    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>d_BarcodeID</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>Scanner le code-barres maintenant</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Scanner"</t>
+  </si>
+  <si>
+    <t>d_generatedid</t>
+  </si>
+  <si>
+    <t>Enter the second part and the third part of the generated code (must must have the format 1234-567 only with numbers and dashes)</t>
+  </si>
+  <si>
+    <t>Entrer la deuxième partie et la troisième partie du code généré (doit doit avoir le format 123-1234-567 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Generation automatique"</t>
   </si>
 </sst>
 </file>
@@ -634,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,6 +789,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,13 +1077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1253,185 +1280,171 @@
       <c r="O5" s="39"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5">
+    <row r="7" spans="1:17" s="3" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>43</v>
+        <v>152</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="31.5">
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="47.25">
       <c r="A8" s="22" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>52</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D8" s="29"/>
       <c r="E8" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1">
-      <c r="A9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A10" s="22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="28" t="s">
-        <v>62</v>
-      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="22" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="49"/>
       <c r="J11" s="43"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="L11" s="23"/>
       <c r="M11" s="39" t="s">
         <v>26</v>
       </c>
@@ -1439,19 +1452,19 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="63">
+    <row r="12" spans="1:17" s="3" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="E12" s="42" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="22"/>
@@ -1459,43 +1472,39 @@
       <c r="I12" s="49"/>
       <c r="J12" s="43"/>
       <c r="K12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1">
       <c r="A13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="43"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="L13" s="23"/>
       <c r="M13" s="39" t="s">
         <v>26</v>
       </c>
@@ -1503,273 +1512,363 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" s="3" customFormat="1">
       <c r="A14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="M14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="63">
       <c r="A15" s="22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="44"/>
+      <c r="E15" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1">
       <c r="A16" s="22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="44" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F16" s="44"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="44"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>42</v>
+      </c>
       <c r="K16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="L16" s="22"/>
       <c r="M16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="22" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+        <v>68</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="32"/>
       <c r="J17" s="44"/>
       <c r="K17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1">
+    <row r="18" spans="1:16">
       <c r="A18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="19" spans="1:16" s="19" customFormat="1">
-      <c r="A19" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5">
+        <v>51</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="22" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>89</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C20" s="31"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="44" t="s">
-        <v>90</v>
-      </c>
+      <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="32"/>
       <c r="J20" s="44"/>
       <c r="K20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" s="18" customFormat="1">
       <c r="A21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" s="19" customFormat="1">
+      <c r="A22" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="B22" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="22" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="F23" s="44"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="32"/>
       <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1781,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:G30"/>
     </sheetView>
@@ -1796,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1808,209 +1907,209 @@
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2024,16 +2123,16 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
@@ -2050,38 +2149,38 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -2097,77 +2196,77 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -2182,7 +2281,7 @@
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1">
       <c r="A27" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B27" s="10">
         <v>101</v>
@@ -2196,12 +2295,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B28" s="13">
         <v>102</v>
@@ -2215,12 +2314,12 @@
       <c r="E28" s="16"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B29" s="10">
         <v>103</v>
@@ -2233,12 +2332,12 @@
       </c>
       <c r="E29" s="9"/>
       <c r="G29" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10">
         <v>104</v>
@@ -2252,7 +2351,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
       <c r="G30" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1">
@@ -2494,24 +2593,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="51" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
